--- a/artfynd/A 61386-2022.xlsx
+++ b/artfynd/A 61386-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111356587</v>
+        <v>111356762</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>553994.858156529</v>
+        <v>553951.9614282879</v>
       </c>
       <c r="R2" t="n">
-        <v>7002052.403435753</v>
+        <v>7002044.904499132</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111357080</v>
+        <v>111357157</v>
       </c>
       <c r="B3" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111356762</v>
+        <v>111357015</v>
       </c>
       <c r="B4" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>553951.9614282879</v>
+        <v>553909.463631961</v>
       </c>
       <c r="R4" t="n">
-        <v>7002044.904499132</v>
+        <v>7002013.443953016</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111357776</v>
+        <v>111357360</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>553808.7819238321</v>
+        <v>553854.7258749125</v>
       </c>
       <c r="R5" t="n">
-        <v>7002131.15853373</v>
+        <v>7001982.684500803</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,7 +1132,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111357157</v>
+        <v>111357776</v>
       </c>
       <c r="B6" t="n">
         <v>78578</v>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>553906.6257793424</v>
+        <v>553808.7819238321</v>
       </c>
       <c r="R6" t="n">
-        <v>7001993.497915561</v>
+        <v>7002131.15853373</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,7 +1245,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111356263</v>
+        <v>111356314</v>
       </c>
       <c r="B7" t="n">
         <v>96348</v>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554054.0600129352</v>
+        <v>554037.1883795768</v>
       </c>
       <c r="R7" t="n">
-        <v>7002113.991040959</v>
+        <v>7002120.944976788</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111358027</v>
+        <v>111356263</v>
       </c>
       <c r="B8" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>553857.5193624865</v>
+        <v>554054.0600129352</v>
       </c>
       <c r="R8" t="n">
-        <v>7002168.599353628</v>
+        <v>7002113.991040959</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111357015</v>
+        <v>111356256</v>
       </c>
       <c r="B9" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1487,21 +1487,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>553909.463631961</v>
+        <v>554052.9808952439</v>
       </c>
       <c r="R9" t="n">
-        <v>7002013.443953016</v>
+        <v>7002124.374295473</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,7 +1584,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111356314</v>
+        <v>111356587</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>554037.1883795768</v>
+        <v>553994.858156529</v>
       </c>
       <c r="R10" t="n">
-        <v>7002120.944976788</v>
+        <v>7002052.403435753</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111358006</v>
+        <v>111356354</v>
       </c>
       <c r="B11" t="n">
-        <v>98446</v>
+        <v>78578</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>222771</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>553854.1622618367</v>
+        <v>554026.383447904</v>
       </c>
       <c r="R11" t="n">
-        <v>7002179.849007829</v>
+        <v>7002090.012868459</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111356256</v>
+        <v>111357873</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>554052.9808952439</v>
+        <v>553818.3826172169</v>
       </c>
       <c r="R12" t="n">
-        <v>7002124.374295473</v>
+        <v>7002180.158265028</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111357720</v>
+        <v>111358006</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>98446</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>222771</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>553822.8840132115</v>
+        <v>553854.1622618367</v>
       </c>
       <c r="R13" t="n">
-        <v>7002127.322982416</v>
+        <v>7002179.849007829</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -2036,10 +2036,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111356632</v>
+        <v>111357080</v>
       </c>
       <c r="B14" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2052,21 +2052,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2077,10 +2077,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>553994.858156529</v>
+        <v>553906.6257793424</v>
       </c>
       <c r="R14" t="n">
-        <v>7002052.403435753</v>
+        <v>7001993.497915561</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2149,10 +2149,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111356702</v>
+        <v>111357720</v>
       </c>
       <c r="B15" t="n">
-        <v>6202</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2161,25 +2161,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>105336</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>553981.1551737323</v>
+        <v>553822.8840132115</v>
       </c>
       <c r="R15" t="n">
-        <v>7002032.27630965</v>
+        <v>7002127.322982416</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2262,10 +2262,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111357360</v>
+        <v>111356702</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>6202</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2274,25 +2274,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>105336</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>553854.7258749125</v>
+        <v>553981.1551737323</v>
       </c>
       <c r="R16" t="n">
-        <v>7001982.684500803</v>
+        <v>7002032.27630965</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2375,10 +2375,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111357873</v>
+        <v>111358027</v>
       </c>
       <c r="B17" t="n">
-        <v>78578</v>
+        <v>98446</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2387,25 +2387,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6458</v>
+        <v>222771</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2416,10 +2416,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>553818.3826172169</v>
+        <v>553857.5193624865</v>
       </c>
       <c r="R17" t="n">
-        <v>7002180.158265028</v>
+        <v>7002168.599353628</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111356354</v>
+        <v>111356632</v>
       </c>
       <c r="B18" t="n">
         <v>78578</v>
@@ -2529,10 +2529,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>554026.383447904</v>
+        <v>553994.858156529</v>
       </c>
       <c r="R18" t="n">
-        <v>7002090.012868459</v>
+        <v>7002052.403435753</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 61386-2022.xlsx
+++ b/artfynd/A 61386-2022.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111356762</v>
+        <v>111357873</v>
       </c>
       <c r="B2" t="n">
-        <v>89686</v>
+        <v>78578</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>658</v>
+        <v>6458</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>553951.9614282879</v>
+        <v>553818.3826172169</v>
       </c>
       <c r="R2" t="n">
-        <v>7002044.904499132</v>
+        <v>7002180.158265028</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111357157</v>
+        <v>111357720</v>
       </c>
       <c r="B3" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -805,25 +805,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>553906.6257793424</v>
+        <v>553822.8840132115</v>
       </c>
       <c r="R3" t="n">
-        <v>7001993.497915561</v>
+        <v>7002127.322982416</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111357015</v>
+        <v>111357157</v>
       </c>
       <c r="B4" t="n">
-        <v>89845</v>
+        <v>78578</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1209</v>
+        <v>6458</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>553909.463631961</v>
+        <v>553906.6257793424</v>
       </c>
       <c r="R4" t="n">
-        <v>7002013.443953016</v>
+        <v>7001993.497915561</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111357360</v>
+        <v>111356632</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>78578</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>553854.7258749125</v>
+        <v>553994.858156529</v>
       </c>
       <c r="R5" t="n">
-        <v>7001982.684500803</v>
+        <v>7002052.403435753</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111357776</v>
+        <v>111357015</v>
       </c>
       <c r="B6" t="n">
-        <v>78578</v>
+        <v>89845</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,25 +1144,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>553808.7819238321</v>
+        <v>553909.463631961</v>
       </c>
       <c r="R6" t="n">
-        <v>7002131.15853373</v>
+        <v>7002013.443953016</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111356263</v>
+        <v>111358006</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>98446</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>222771</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>554054.0600129352</v>
+        <v>553854.1622618367</v>
       </c>
       <c r="R8" t="n">
-        <v>7002113.991040959</v>
+        <v>7002179.849007829</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111356256</v>
+        <v>111357776</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>554052.9808952439</v>
+        <v>553808.7819238321</v>
       </c>
       <c r="R9" t="n">
-        <v>7002124.374295473</v>
+        <v>7002131.15853373</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111356587</v>
+        <v>111356762</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>553994.858156529</v>
+        <v>553951.9614282879</v>
       </c>
       <c r="R10" t="n">
-        <v>7002052.403435753</v>
+        <v>7002044.904499132</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111356354</v>
+        <v>111356256</v>
       </c>
       <c r="B11" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1709,25 +1709,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554026.383447904</v>
+        <v>554052.9808952439</v>
       </c>
       <c r="R11" t="n">
-        <v>7002090.012868459</v>
+        <v>7002124.374295473</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111357873</v>
+        <v>111356587</v>
       </c>
       <c r="B12" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>553818.3826172169</v>
+        <v>553994.858156529</v>
       </c>
       <c r="R12" t="n">
-        <v>7002180.158265028</v>
+        <v>7002052.403435753</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111358006</v>
+        <v>111357360</v>
       </c>
       <c r="B13" t="n">
-        <v>98446</v>
+        <v>89405</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>222771</v>
+        <v>1202</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>553854.1622618367</v>
+        <v>553854.7258749125</v>
       </c>
       <c r="R13" t="n">
-        <v>7002179.849007829</v>
+        <v>7001982.684500803</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2036,10 +2036,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111357080</v>
+        <v>111358027</v>
       </c>
       <c r="B14" t="n">
-        <v>89686</v>
+        <v>98446</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2048,25 +2048,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>222771</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2077,10 +2077,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>553906.6257793424</v>
+        <v>553857.5193624865</v>
       </c>
       <c r="R14" t="n">
-        <v>7001993.497915561</v>
+        <v>7002168.599353628</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2149,7 +2149,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111357720</v>
+        <v>111356263</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>553822.8840132115</v>
+        <v>554054.0600129352</v>
       </c>
       <c r="R15" t="n">
-        <v>7002127.322982416</v>
+        <v>7002113.991040959</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2262,10 +2262,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111356702</v>
+        <v>111356354</v>
       </c>
       <c r="B16" t="n">
-        <v>6202</v>
+        <v>78578</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2274,25 +2274,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>105336</v>
+        <v>6458</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>553981.1551737323</v>
+        <v>554026.383447904</v>
       </c>
       <c r="R16" t="n">
-        <v>7002032.27630965</v>
+        <v>7002090.012868459</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2375,10 +2375,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111358027</v>
+        <v>111356702</v>
       </c>
       <c r="B17" t="n">
-        <v>98446</v>
+        <v>6202</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2391,21 +2391,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>222771</v>
+        <v>105336</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2416,10 +2416,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>553857.5193624865</v>
+        <v>553981.1551737323</v>
       </c>
       <c r="R17" t="n">
-        <v>7002168.599353628</v>
+        <v>7002032.27630965</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2488,10 +2488,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111356632</v>
+        <v>111357080</v>
       </c>
       <c r="B18" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2504,21 +2504,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2529,10 +2529,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>553994.858156529</v>
+        <v>553906.6257793424</v>
       </c>
       <c r="R18" t="n">
-        <v>7002052.403435753</v>
+        <v>7001993.497915561</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 61386-2022.xlsx
+++ b/artfynd/A 61386-2022.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111357873</v>
+        <v>111357157</v>
       </c>
       <c r="B2" t="n">
         <v>78578</v>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>553818.3826172169</v>
+        <v>553906.6257793424</v>
       </c>
       <c r="R2" t="n">
-        <v>7002180.158265028</v>
+        <v>7001993.497915561</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111357720</v>
+        <v>111357015</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>89845</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,21 +809,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>1209</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>553822.8840132115</v>
+        <v>553909.463631961</v>
       </c>
       <c r="R3" t="n">
-        <v>7002127.322982416</v>
+        <v>7002013.443953016</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111357157</v>
+        <v>111357080</v>
       </c>
       <c r="B4" t="n">
-        <v>78578</v>
+        <v>89686</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -922,21 +922,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>6458</v>
+        <v>658</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111356632</v>
+        <v>111357360</v>
       </c>
       <c r="B5" t="n">
-        <v>78578</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1035,21 +1035,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6458</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>553994.858156529</v>
+        <v>553854.7258749125</v>
       </c>
       <c r="R5" t="n">
-        <v>7002052.403435753</v>
+        <v>7001982.684500803</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>21:05</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111357015</v>
+        <v>111356256</v>
       </c>
       <c r="B6" t="n">
-        <v>89845</v>
+        <v>96348</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1209</v>
+        <v>220787</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>553909.463631961</v>
+        <v>554052.9808952439</v>
       </c>
       <c r="R6" t="n">
-        <v>7002013.443953016</v>
+        <v>7002124.374295473</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111356314</v>
+        <v>111356632</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>554037.1883795768</v>
+        <v>553994.858156529</v>
       </c>
       <c r="R7" t="n">
-        <v>7002120.944976788</v>
+        <v>7002052.403435753</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,7 +1358,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111358006</v>
+        <v>111358027</v>
       </c>
       <c r="B8" t="n">
         <v>98446</v>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>553854.1622618367</v>
+        <v>553857.5193624865</v>
       </c>
       <c r="R8" t="n">
-        <v>7002179.849007829</v>
+        <v>7002168.599353628</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111357776</v>
+        <v>111357873</v>
       </c>
       <c r="B9" t="n">
         <v>78578</v>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>553808.7819238321</v>
+        <v>553818.3826172169</v>
       </c>
       <c r="R9" t="n">
-        <v>7002131.15853373</v>
+        <v>7002180.158265028</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111356762</v>
+        <v>111356702</v>
       </c>
       <c r="B10" t="n">
-        <v>89686</v>
+        <v>6202</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1596,25 +1596,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>658</v>
+        <v>105336</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Vanlig flatbagge</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Peltis ferruginea</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>553951.9614282879</v>
+        <v>553981.1551737323</v>
       </c>
       <c r="R10" t="n">
-        <v>7002044.904499132</v>
+        <v>7002032.27630965</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,7 +1697,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111356256</v>
+        <v>111356314</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>554052.9808952439</v>
+        <v>554037.1883795768</v>
       </c>
       <c r="R11" t="n">
-        <v>7002124.374295473</v>
+        <v>7002120.944976788</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111356587</v>
+        <v>111357776</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,25 +1822,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>553994.858156529</v>
+        <v>553808.7819238321</v>
       </c>
       <c r="R12" t="n">
-        <v>7002052.403435753</v>
+        <v>7002131.15853373</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111357360</v>
+        <v>111358006</v>
       </c>
       <c r="B13" t="n">
-        <v>89405</v>
+        <v>98446</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1202</v>
+        <v>222771</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Svart trolldruva</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Actaea spicata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>553854.7258749125</v>
+        <v>553854.1622618367</v>
       </c>
       <c r="R13" t="n">
-        <v>7001982.684500803</v>
+        <v>7002179.849007829</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>21:05</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2036,10 +2036,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111358027</v>
+        <v>111356587</v>
       </c>
       <c r="B14" t="n">
-        <v>98446</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2048,25 +2048,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>222771</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Svart trolldruva</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Actaea spicata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2077,10 +2077,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>553857.5193624865</v>
+        <v>553994.858156529</v>
       </c>
       <c r="R14" t="n">
-        <v>7002168.599353628</v>
+        <v>7002052.403435753</v>
       </c>
       <c r="S14" t="n">
         <v>25</v>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
@@ -2122,7 +2122,7 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>21:36</t>
+          <t>20:39</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2149,10 +2149,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111356263</v>
+        <v>111356762</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>89686</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2161,25 +2161,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>658</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>554054.0600129352</v>
+        <v>553951.9614282879</v>
       </c>
       <c r="R15" t="n">
-        <v>7002113.991040959</v>
+        <v>7002044.904499132</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2225,7 +2225,7 @@
       </c>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:49</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2375,10 +2375,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111356702</v>
+        <v>111356263</v>
       </c>
       <c r="B17" t="n">
-        <v>6202</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2387,25 +2387,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>105336</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vanlig flatbagge</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Peltis ferruginea</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2416,10 +2416,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>553981.1551737323</v>
+        <v>554054.0600129352</v>
       </c>
       <c r="R17" t="n">
-        <v>7002032.27630965</v>
+        <v>7002113.991040959</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>20:39</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2488,10 +2488,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111357080</v>
+        <v>111357720</v>
       </c>
       <c r="B18" t="n">
-        <v>89686</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2500,25 +2500,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>658</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2529,10 +2529,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>553906.6257793424</v>
+        <v>553822.8840132115</v>
       </c>
       <c r="R18" t="n">
-        <v>7001993.497915561</v>
+        <v>7002127.322982416</v>
       </c>
       <c r="S18" t="n">
         <v>25</v>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
@@ -2574,7 +2574,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>20:49</t>
+          <t>21:36</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 61386-2022.xlsx
+++ b/artfynd/A 61386-2022.xlsx
@@ -2262,10 +2262,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111356354</v>
+        <v>111356263</v>
       </c>
       <c r="B16" t="n">
-        <v>78578</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2274,25 +2274,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6458</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2303,10 +2303,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>554026.383447904</v>
+        <v>554054.0600129352</v>
       </c>
       <c r="R16" t="n">
-        <v>7002090.012868459</v>
+        <v>7002113.991040959</v>
       </c>
       <c r="S16" t="n">
         <v>25</v>
@@ -2338,7 +2338,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2348,7 +2348,7 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>20:27</t>
+          <t>20:23</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2375,10 +2375,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111356263</v>
+        <v>111356354</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>78578</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2387,25 +2387,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>6458</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2416,10 +2416,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>554054.0600129352</v>
+        <v>554026.383447904</v>
       </c>
       <c r="R17" t="n">
-        <v>7002113.991040959</v>
+        <v>7002090.012868459</v>
       </c>
       <c r="S17" t="n">
         <v>25</v>
@@ -2451,7 +2451,7 @@
       </c>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -2461,7 +2461,7 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>20:23</t>
+          <t>20:27</t>
         </is>
       </c>
       <c r="AD17" t="b">
